--- a/enlaces.xlsx
+++ b/enlaces.xlsx
@@ -443,7 +443,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.lanacion.com.ar/https://www.lanacion.com.ar//economia/milei-anunciara-esta-noche-una-negociacion-con-eeuu-para-llegar-a-un-arancel-0-en-algunos-productos-nid03042025/</t>
+          <t>https://www.lanacion.com.ar/https://www.lanacion.com.ar//politica/javier-milei-afirmo-que-la-argentina-readecuara-la-normativa-para-cumplir-con-los-requisitos-de-la-nid03042025/</t>
         </is>
       </c>
     </row>

--- a/enlaces.xlsx
+++ b/enlaces.xlsx
@@ -443,42 +443,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.lanacion.com.ar/https://www.lanacion.com.ar//politica/javier-milei-afirmo-que-la-argentina-readecuara-la-normativa-para-cumplir-con-los-requisitos-de-la-nid03042025/</t>
+          <t>https://www.lanacion.com.ar/https://www.lanacion.com.ar//politica/pese-a-la-expectativa-javier-milei-no-consiguio-reunirse-con-donald-trump-en-estados-unidos-nid04042025/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.lanacion.com.ar/https://www.lanacion.com.ar//estados-unidos/el-nuevo-mapa-del-comercio-global-region-por-region-quienes-son-los-ganadores-y-perdedores-de-los-nid03042025/</t>
+          <t>https://www.lanacion.com.ar/https://www.lanacion.com.ar//economia/dolar/dolar-hoy-sigue-la-turbulencia-internacional-y-el-riesgo-pais-supera-los-900-puntos-nid04042025/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.lanacion.com.ar/https://www.lanacion.com.ar//deportes/futbol/el-gol-de-enzo-fernandez-para-el-triunfo-de-chelsea-sobre-tottenham-por-la-premier-league-nid03042025/</t>
+          <t>https://www.lanacion.com.ar/https://www.lanacion.com.ar//politica/lorenzetti-dijo-que-garcia-mansilla-debera-decidir-si-se-queda-o-se-va-de-la-corte-y-afirmo-yo-nunca-nid04042025/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>https://www.lanacion.com.ar/https://www.lanacion.com.ar//politica/el-gobierno-quiere-sostener-a-garcia-mansilla-en-la-corte-pero-no-insistira-en-el-caso-de-ariel-lijo-nid03042025/</t>
+          <t>https://www.lanacion.com.ar/https://www.lanacion.com.ar//politica/lijo-y-garcia-mansilla-como-voto-cada-senador-en-la-sesion-sobre-la-propuesta-de-javier-milei-para-nid03042025/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>https://www.lanacion.com.ar/https://www.lanacion.com.ar//politica/el-mensaje-de-milei-despues-del-rechazo-de-los-pliegos-donde-estan-todos-los-que-decian-que-tenia-un-nid03042025/</t>
+          <t>https://www.lanacion.com.ar/https://www.lanacion.com.ar//economia/dura-respuesta-de-china-a-trump-impondra-aranceles-adicionales-de-34-a-los-productos-de-eeuu-nid04042025/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.lanacion.com.ar/https://www.lanacion.com.ar//politica/los-pliegos-de-la-corte-emisarios-acrobacias-reglamentarias-y-una-jugada-final-las-tacticas-fallidas-nid03042025/</t>
+          <t>https://www.lanacion.com.ar/https://www.lanacion.com.ar//deportes/automovilismo/doohan-dejo-un-mensaje-despues-del-fuerte-accidente-en-las-pruebas-del-gp-de-japon-de-formula-1-me-nid04042025/</t>
         </is>
       </c>
     </row>
